--- a/SchulungsUnterlagen/HBU/Uebersicht_TOC.xlsx
+++ b/SchulungsUnterlagen/HBU/Uebersicht_TOC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\HBU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8376B781-DAA6-49E3-820D-5CC1DD0A262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D6D0A1-1B85-43A6-92B6-EAF398D7CFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24495" yWindow="-13815" windowWidth="23085" windowHeight="13065" xr2:uid="{236BD220-2BAE-4B87-9CD5-43F0766BF8DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{236BD220-2BAE-4B87-9CD5-43F0766BF8DC}"/>
   </bookViews>
   <sheets>
     <sheet name="HBU Uebersicht Dokumente" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Fach</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>MLZ_HFU_PY1_LoggerKlasse.docx</t>
+  </si>
+  <si>
+    <t>__init__ von Bruch erweitern</t>
+  </si>
+  <si>
+    <t>MySense_Hat.py</t>
+  </si>
+  <si>
+    <t>Modulbeschreibung_HFE_PYT2.docx</t>
+  </si>
+  <si>
+    <t>Unterrichtsplan_HFE_PYT2.docx</t>
   </si>
 </sst>
 </file>
@@ -155,9 +167,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -168,6 +177,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -507,7 +519,7 @@
   <dimension ref="B3:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,7 +531,9 @@
     <col min="7" max="7" width="9.81640625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
     <col min="9" max="9" width="9.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" customWidth="1"/>
     <col min="11" max="11" width="9.81640625" customWidth="1"/>
+    <col min="12" max="12" width="13.90625" customWidth="1"/>
     <col min="13" max="13" width="9.81640625" customWidth="1"/>
     <col min="14" max="14" width="29.08984375" customWidth="1"/>
   </cols>
@@ -528,131 +542,139 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="2:14" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>45649</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>45622</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>45626</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="8">
+      <c r="L5" s="2"/>
+      <c r="M5" s="7">
         <v>45586</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>45292</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
-        <v>45292</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="E6" s="3">
+        <v>45649</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" display="https://hfu-moodle.ch/course/view.php?id=444" xr:uid="{5ACF0287-D1DC-4C4C-A51F-3ABF9ED0F604}"/>
@@ -664,8 +686,10 @@
     <hyperlink ref="C6" r:id="rId7" display="https://hfu-moodle.ch/course/view.php?id=445" xr:uid="{B360961C-E3D7-4387-9111-77A1E57DAC43}"/>
     <hyperlink ref="D6" r:id="rId8" xr:uid="{C1E7166E-CCFC-4D06-966F-30AD11025179}"/>
     <hyperlink ref="N5" r:id="rId9" xr:uid="{0F8AF115-E739-423D-B8F5-1BE4F97DEE72}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{C18BC47A-3FFD-42E5-A7A8-E57BC89CC45F}"/>
+    <hyperlink ref="H6" r:id="rId11" xr:uid="{74C15820-B510-4A68-BB04-51429EBBB27D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
--- a/SchulungsUnterlagen/HBU/Uebersicht_TOC.xlsx
+++ b/SchulungsUnterlagen/HBU/Uebersicht_TOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\HBU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D6D0A1-1B85-43A6-92B6-EAF398D7CFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE11C501-FE7D-424B-BFB1-EE886C718580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{236BD220-2BAE-4B87-9CD5-43F0766BF8DC}"/>
   </bookViews>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019F1109-404D-4216-8138-C58AFD5386BC}">
   <dimension ref="B3:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,7 +635,9 @@
       <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="7">
+        <v>45649</v>
+      </c>
       <c r="H6" s="4" t="s">
         <v>18</v>
       </c>

--- a/SchulungsUnterlagen/HBU/Uebersicht_TOC.xlsx
+++ b/SchulungsUnterlagen/HBU/Uebersicht_TOC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\HBU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE11C501-FE7D-424B-BFB1-EE886C718580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E634B5-A0AB-4B2F-BD98-D08BB5964877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{236BD220-2BAE-4B87-9CD5-43F0766BF8DC}"/>
+    <workbookView xWindow="-60" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{236BD220-2BAE-4B87-9CD5-43F0766BF8DC}"/>
   </bookViews>
   <sheets>
     <sheet name="HBU Uebersicht Dokumente" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Fach</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Unterrichtsplan_HFE_PYT2.docx</t>
+  </si>
+  <si>
+    <t>Modulbeschreibung_HFE_LMS.docx</t>
+  </si>
+  <si>
+    <t>Unterrichtsplan_HFE_LMS.docx</t>
   </si>
 </sst>
 </file>
@@ -518,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019F1109-404D-4216-8138-C58AFD5386BC}">
   <dimension ref="B3:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="3">
-        <v>45292</v>
+        <v>45649</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>7</v>
@@ -656,12 +662,24 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="C7" s="3">
+        <v>45651</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45651</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7">
+        <v>45651</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -690,8 +708,13 @@
     <hyperlink ref="N5" r:id="rId9" xr:uid="{0F8AF115-E739-423D-B8F5-1BE4F97DEE72}"/>
     <hyperlink ref="F6" r:id="rId10" xr:uid="{C18BC47A-3FFD-42E5-A7A8-E57BC89CC45F}"/>
     <hyperlink ref="H6" r:id="rId11" xr:uid="{74C15820-B510-4A68-BB04-51429EBBB27D}"/>
+    <hyperlink ref="C7" r:id="rId12" display="https://hfu-moodle.ch/course/view.php?id=518" xr:uid="{5B6011A1-1CDA-4493-8C86-F4863C2E46EF}"/>
+    <hyperlink ref="D7" r:id="rId13" xr:uid="{E6B2A274-B98F-4EB7-B8C6-C3C1BCAB5ADF}"/>
+    <hyperlink ref="F7" r:id="rId14" xr:uid="{8F4B9E8B-F1C0-4DC7-AC45-B7296E3E15ED}"/>
+    <hyperlink ref="E7" r:id="rId15" display="https://www.hbu.ch/de/Attest/Objektorientiertes_Programmieren_mit_LegoMindstorms.kHF-LMS.10673.html" xr:uid="{6E4CE584-D825-4925-AFB9-3558BA93BA18}"/>
+    <hyperlink ref="H7" r:id="rId16" xr:uid="{C2EEEDB5-44B6-497F-A946-4AB010CB33D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>